--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software testing class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A8FA8D-03DD-4616-A051-AECD5C28F4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69158C6A-5490-4625-9409-BA3565498BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{27CDD17B-BF41-4936-994B-9949F009FA3A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>TestCse ID</t>
   </si>
@@ -184,6 +184,36 @@
   </si>
   <si>
     <t>TC_FB_010</t>
+  </si>
+  <si>
+    <t>TC_FB_011</t>
+  </si>
+  <si>
+    <t>Password empty</t>
+  </si>
+  <si>
+    <t>Navigate to facebook.com, Enter a valid format email, Enter a empty password click login</t>
+  </si>
+  <si>
+    <t>Email valid@gmail.com and  password:empty</t>
+  </si>
+  <si>
+    <t>Error msg :password is empty</t>
+  </si>
+  <si>
+    <t>TC_FB_012</t>
+  </si>
+  <si>
+    <t>Email empty</t>
+  </si>
+  <si>
+    <t>Navigate to facebook.com, Enter a ematy email, Enter a valid password click login</t>
+  </si>
+  <si>
+    <t>Email empty@gmail.com and  password:valid</t>
+  </si>
+  <si>
+    <t>Error msg :email is empty</t>
   </si>
 </sst>
 </file>
@@ -538,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F4A40A-F184-4B2E-8F77-400EBE9D2292}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,7 +880,54 @@
         <v>48</v>
       </c>
     </row>
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>